--- a/trabajo_aplicativo_integrador/evolucion_prevalencia_salud.xlsx
+++ b/trabajo_aplicativo_integrador/evolucion_prevalencia_salud.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\licenciamiento556\OneDrive - Superintendencia Nacional de Educación Superior Universitaria\Encargos\Proyectos R\programas_pregrado_educacion\antecedentes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\Github\PracticeGroup_R\trabajo_aplicativo_integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E39AE-ED22-476D-8995-6D06FEFFA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="estres" sheetId="1" r:id="rId1"/>
-    <sheet name="depresion" sheetId="3" r:id="rId2"/>
-    <sheet name="ansiedad" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
+    <sheet name="estres" sheetId="1" r:id="rId2"/>
+    <sheet name="depresion" sheetId="3" r:id="rId3"/>
+    <sheet name="ansiedad" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="15">
   <si>
     <t>Estrés</t>
   </si>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,16 +389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B8DA46-B6D6-4110-B9A4-A3D119266A8B}">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -410,7 +412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -424,7 +426,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +440,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -452,7 +454,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -466,7 +468,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -480,7 +482,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -494,7 +496,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -508,7 +510,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -522,7 +524,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -536,7 +538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -550,7 +552,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -564,7 +566,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -578,7 +580,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -592,7 +594,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -606,7 +608,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -620,7 +622,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -634,7 +636,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -648,7 +650,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -662,7 +664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -676,7 +678,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -690,7 +692,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -704,7 +706,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -718,7 +720,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -732,7 +734,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -746,7 +748,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -760,7 +762,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -774,7 +776,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -788,7 +790,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -802,7 +804,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -816,7 +818,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -830,7 +832,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -844,7 +846,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -858,7 +860,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -872,7 +874,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -886,7 +888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -900,7 +902,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -914,7 +916,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -928,7 +930,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -942,7 +944,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -956,7 +958,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -967,6 +969,902 @@
         <v>44.2</v>
       </c>
       <c r="D41">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>5.48</v>
+      </c>
+      <c r="D42">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>9.66</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>8.18</v>
+      </c>
+      <c r="D44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>16.2</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>6.43</v>
+      </c>
+      <c r="D47">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D48">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>7.54</v>
+      </c>
+      <c r="D49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>13.1</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>14.8</v>
+      </c>
+      <c r="D51">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>4.96</v>
+      </c>
+      <c r="D52">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>9.84</v>
+      </c>
+      <c r="D53">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>21.6</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>4.76</v>
+      </c>
+      <c r="D57">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D58">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>7.96</v>
+      </c>
+      <c r="D59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>16.8</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>19.5</v>
+      </c>
+      <c r="D61">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>7.82</v>
+      </c>
+      <c r="D62">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>9.41</v>
+      </c>
+      <c r="D63">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>9.07</v>
+      </c>
+      <c r="D64">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>14.9</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D66">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>4.01</v>
+      </c>
+      <c r="D67">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>7.86</v>
+      </c>
+      <c r="D68">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>6.2</v>
+      </c>
+      <c r="D69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D70">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>21.1</v>
+      </c>
+      <c r="D71">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>5.96</v>
+      </c>
+      <c r="D72">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>9.9</v>
+      </c>
+      <c r="D73">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>19.7</v>
+      </c>
+      <c r="D76">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>5.58</v>
+      </c>
+      <c r="D77">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D78">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>8.59</v>
+      </c>
+      <c r="D79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>15.4</v>
+      </c>
+      <c r="D80">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>17.5</v>
+      </c>
+      <c r="D81">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>15.4</v>
+      </c>
+      <c r="D82">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>27.3</v>
+      </c>
+      <c r="D83">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>28.4</v>
+      </c>
+      <c r="D84">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>21.2</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>24.3</v>
+      </c>
+      <c r="D87">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>16.8</v>
+      </c>
+      <c r="D88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>30.9</v>
+      </c>
+      <c r="D89">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>30.8</v>
+      </c>
+      <c r="D90">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>15.9</v>
+      </c>
+      <c r="D91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>29.6</v>
+      </c>
+      <c r="D92">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>31.1</v>
+      </c>
+      <c r="D93">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>13.6</v>
+      </c>
+      <c r="D94">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>21.7</v>
+      </c>
+      <c r="D95">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>14.6</v>
+      </c>
+      <c r="D97">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>27.6</v>
+      </c>
+      <c r="D98">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>28.9</v>
+      </c>
+      <c r="D99">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>15.2</v>
+      </c>
+      <c r="D100">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>25.9</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>27.9</v>
+      </c>
+      <c r="D102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>28.8</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>28.8</v>
+      </c>
+      <c r="D105">
         <v>2021</v>
       </c>
     </row>
@@ -976,16 +1874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -999,561 +1897,561 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.48</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9.66</v>
+        <v>42.7</v>
       </c>
       <c r="D3">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8.18</v>
+        <v>42.3</v>
       </c>
       <c r="D4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>16.2</v>
+        <v>60.4</v>
       </c>
       <c r="D5">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>19.100000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="D6">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6.43</v>
+        <v>31.4</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>9.2799999999999994</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>7.54</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>13.1</v>
+        <v>52.4</v>
       </c>
       <c r="D10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>14.8</v>
+        <v>47.3</v>
       </c>
       <c r="D11">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.96</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D12">
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>9.84</v>
+        <v>46.1</v>
       </c>
       <c r="D13">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>8.5500000000000007</v>
+        <v>44.8</v>
       </c>
       <c r="D14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>18.100000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>21.6</v>
+        <v>60.7</v>
       </c>
       <c r="D16">
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>4.76</v>
+        <v>33.1</v>
       </c>
       <c r="D17">
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>9.7200000000000006</v>
+        <v>45.2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>7.96</v>
+        <v>43.4</v>
       </c>
       <c r="D19">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>16.8</v>
+        <v>54.4</v>
       </c>
       <c r="D20">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>19.5</v>
+        <v>61.3</v>
       </c>
       <c r="D21">
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>7.82</v>
+        <v>29.5</v>
       </c>
       <c r="D22">
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>9.41</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>9.07</v>
+        <v>37.9</v>
       </c>
       <c r="D24">
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>14.9</v>
+        <v>54.4</v>
       </c>
       <c r="D25">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>18.600000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="D26">
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>4.01</v>
+        <v>31.3</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>7.86</v>
+        <v>41.2</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>6.2</v>
+        <v>41.8</v>
       </c>
       <c r="D29">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30">
-        <v>17.600000000000001</v>
+        <v>37.9</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>21.1</v>
+        <v>42.8</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>5.96</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D32">
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33">
-        <v>9.9</v>
+        <v>41.3</v>
       </c>
       <c r="D33">
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>8.7100000000000009</v>
+        <v>42.7</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35">
-        <v>16.399999999999999</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D35">
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36">
-        <v>19.7</v>
+        <v>44.8</v>
       </c>
       <c r="D36">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37">
-        <v>5.58</v>
+        <v>32.1</v>
       </c>
       <c r="D37">
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38">
-        <v>10.199999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="D38">
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39">
-        <v>8.59</v>
+        <v>42.1</v>
       </c>
       <c r="D39">
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40">
-        <v>15.4</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D40">
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41">
-        <v>17.5</v>
+        <v>44.2</v>
       </c>
       <c r="D41">
         <v>2021</v>
@@ -1565,16 +2463,605 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5.48</v>
+      </c>
+      <c r="D2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>9.66</v>
+      </c>
+      <c r="D3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8.18</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>16.2</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6.43</v>
+      </c>
+      <c r="D7">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7.54</v>
+      </c>
+      <c r="D9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>13.1</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>14.8</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4.96</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>9.84</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>21.6</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>4.76</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>7.96</v>
+      </c>
+      <c r="D19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>16.8</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>19.5</v>
+      </c>
+      <c r="D21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7.82</v>
+      </c>
+      <c r="D22">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>9.41</v>
+      </c>
+      <c r="D23">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>9.07</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>14.9</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4.01</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>7.86</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6.2</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>21.1</v>
+      </c>
+      <c r="D31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>5.96</v>
+      </c>
+      <c r="D32">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>9.9</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>19.7</v>
+      </c>
+      <c r="D36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>5.58</v>
+      </c>
+      <c r="D37">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>8.59</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>15.4</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>17.5</v>
+      </c>
+      <c r="D41">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +3075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +3089,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +3103,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +3117,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +3131,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +3145,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +3159,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +3173,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +3187,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +3201,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +3215,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +3229,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +3243,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +3257,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +3271,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +3285,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +3299,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +3313,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +3327,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1854,7 +3341,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1868,7 +3355,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +3369,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +3383,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +3397,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>

--- a/trabajo_aplicativo_integrador/evolucion_prevalencia_salud.xlsx
+++ b/trabajo_aplicativo_integrador/evolucion_prevalencia_salud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\Github\PracticeGroup_R\trabajo_aplicativo_integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E39AE-ED22-476D-8995-6D06FEFFA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90D425-534A-4760-8369-B5A9D3C81A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="19">
   <si>
     <t>Estrés</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>segmento</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -393,23 +405,23 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:D105"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
